--- a/Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
+++ b/Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
@@ -537,25 +537,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1786835758634482</v>
+        <v>0.2778157045883841</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1786835758634482</v>
+        <v>0.2778157045883841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02556839911267161</v>
+        <v>0.02739159454746792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1470181230570196</v>
+        <v>0.07421878152870541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2103490286698768</v>
+        <v>0.4814126276480628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02867005858570337</v>
+        <v>0.03731509775233766</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02246673963963985</v>
+        <v>0.0174680913425982</v>
       </c>
       <c r="H2" t="n">
         <v>128</v>
@@ -599,25 +599,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07123561256229706</v>
+        <v>0.2759030471759479</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1786835758634482</v>
+        <v>0.2778157045883841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1312334345032772</v>
+        <v>0.127655279977868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1568677542780272</v>
+        <v>0.2585715873398218</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01439652915343306</v>
+        <v>0.293234507012074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1339761664470037</v>
+        <v>0.1375497798124949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1284907025595506</v>
+        <v>0.1177607801432411</v>
       </c>
       <c r="H3" t="n">
         <v>64</v>

--- a/Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
+++ b/Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
@@ -537,25 +537,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2778157045883841</v>
+        <v>0.311585934006158</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2778157045883841</v>
+        <v>0.311585934006158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02739159454746792</v>
+        <v>0.02607575592274467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07421878152870541</v>
+        <v>0.1027021207002263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4814126276480628</v>
+        <v>0.5204697473120895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03731509775233766</v>
+        <v>0.03555028762668371</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0174680913425982</v>
+        <v>0.01660122421880563</v>
       </c>
       <c r="H2" t="n">
         <v>128</v>
@@ -599,25 +599,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2759030471759479</v>
+        <v>0.2890917609439557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2778157045883841</v>
+        <v>0.311585934006158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127655279977868</v>
+        <v>0.1277729493193328</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2585715873398218</v>
+        <v>0.2512613604983768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.293234507012074</v>
+        <v>0.3269221613895347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1375497798124949</v>
+        <v>0.1397265962262948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1177607801432411</v>
+        <v>0.1158193024123708</v>
       </c>
       <c r="H3" t="n">
         <v>64</v>

--- a/Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
+++ b/Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
@@ -537,25 +537,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.311585934006158</v>
+        <v>0.3154037898420378</v>
       </c>
       <c r="B2" t="n">
-        <v>0.311585934006158</v>
+        <v>0.3154037898420378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02607575592274467</v>
+        <v>0.02674828619463369</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1027021207002263</v>
+        <v>0.08574248820300062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5204697473120895</v>
+        <v>0.5450650914810752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03555028762668371</v>
+        <v>0.03727019977445403</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01660122421880563</v>
+        <v>0.01622637261481335</v>
       </c>
       <c r="H2" t="n">
         <v>128</v>
@@ -599,25 +599,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2890917609439557</v>
+        <v>0.2710876988152378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.311585934006158</v>
+        <v>0.3154037898420378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1277729493193328</v>
+        <v>0.12850547262157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2512613604983768</v>
+        <v>0.255805309673952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3269221613895347</v>
+        <v>0.2863700879565234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1397265962262948</v>
+        <v>0.138002416032056</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1158193024123708</v>
+        <v>0.1190085292110841</v>
       </c>
       <c r="H3" t="n">
         <v>64</v>
